--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.8113542668641</v>
+        <v>106.0319632936279</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.9379041700999</v>
+        <v>145.0776099783581</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.2547077019695</v>
+        <v>131.2316064997673</v>
       </c>
       <c r="AD2" t="n">
-        <v>81811.3542668641</v>
+        <v>106031.9632936279</v>
       </c>
       <c r="AE2" t="n">
-        <v>111937.9041700998</v>
+        <v>145077.6099783581</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.532967614464396e-06</v>
+        <v>8.387176883088108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.353587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>101254.7077019695</v>
+        <v>131231.6064997673</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.43578584187447</v>
+        <v>86.74164621465886</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.42739666129145</v>
+        <v>118.683747122199</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.27432582206235</v>
+        <v>107.3567368705724</v>
       </c>
       <c r="AD3" t="n">
-        <v>62435.78584187447</v>
+        <v>86741.64621465886</v>
       </c>
       <c r="AE3" t="n">
-        <v>85427.39666129145</v>
+        <v>118683.747122199</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.073696998078788e-06</v>
+        <v>9.387667813529706e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.994791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>77274.32582206235</v>
+        <v>107356.7368705725</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.85507890696542</v>
+        <v>84.61888054823352</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.6835330997101</v>
+        <v>115.7792854875856</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.16987660741601</v>
+        <v>104.7294729779281</v>
       </c>
       <c r="AD2" t="n">
-        <v>72855.07890696541</v>
+        <v>84618.88054823352</v>
       </c>
       <c r="AE2" t="n">
-        <v>99683.5330997101</v>
+        <v>115779.2854875856</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.081768201008864e-06</v>
+        <v>9.686634472598619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.093171296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>90169.87660741601</v>
+        <v>104729.4729779281</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.22469785662609</v>
+        <v>82.98849949789421</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.4527738193014</v>
+        <v>113.5485262071768</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.1520178618385</v>
+        <v>102.7116142323506</v>
       </c>
       <c r="AD3" t="n">
-        <v>71224.6978566261</v>
+        <v>82988.49949789421</v>
       </c>
       <c r="AE3" t="n">
-        <v>97452.77381930139</v>
+        <v>113548.5262071769</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.235738127899677e-06</v>
+        <v>9.980124915800642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.003472222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>88152.0178618385</v>
+        <v>102711.6142323506</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.1029333109158</v>
+        <v>86.85922609270509</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.44494961155954</v>
+        <v>118.8446250985999</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.81301056093824</v>
+        <v>107.5022608786993</v>
       </c>
       <c r="AD2" t="n">
-        <v>66102.9333109158</v>
+        <v>86859.22609270508</v>
       </c>
       <c r="AE2" t="n">
-        <v>90444.94961155954</v>
+        <v>118844.6250985999</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.056696468367814e-06</v>
+        <v>1.076944012531997e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.469328703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>81813.01056093824</v>
+        <v>107502.2608786993</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.39805734004261</v>
+        <v>78.36994289479385</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.2169954450496</v>
+        <v>107.2292133064812</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.41593482716252</v>
+        <v>96.99540768568396</v>
       </c>
       <c r="AD2" t="n">
-        <v>67398.05734004261</v>
+        <v>78369.94289479386</v>
       </c>
       <c r="AE2" t="n">
-        <v>92216.9954450496</v>
+        <v>107229.2133064812</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.233874001041092e-06</v>
+        <v>1.062657373807183e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.206018518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>83415.93482716252</v>
+        <v>96995.40768568395</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.5569418058171</v>
+        <v>86.64991839980381</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.06614406372437</v>
+        <v>118.5582410791687</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.37491908644056</v>
+        <v>107.2432089481402</v>
       </c>
       <c r="AD2" t="n">
-        <v>66556.9418058171</v>
+        <v>86649.91839980381</v>
       </c>
       <c r="AE2" t="n">
-        <v>91066.14406372436</v>
+        <v>118558.2410791687</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.725937992391164e-06</v>
+        <v>1.052374081974845e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>82374.91908644055</v>
+        <v>107243.2089481401</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.12268759967155</v>
+        <v>88.00000743581427</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.1544194697898</v>
+        <v>120.405492459962</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.21406785726521</v>
+        <v>108.9141612497847</v>
       </c>
       <c r="AD2" t="n">
-        <v>76122.68759967155</v>
+        <v>88000.00743581427</v>
       </c>
       <c r="AE2" t="n">
-        <v>104154.4194697898</v>
+        <v>120405.492459962</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.861672564628043e-06</v>
+        <v>9.192273853939072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>94214.06785726521</v>
+        <v>108914.1612497847</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.21550504805855</v>
+        <v>84.09282488420128</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.80843992994691</v>
+        <v>115.059512920119</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.37830110157377</v>
+        <v>104.0783944940932</v>
       </c>
       <c r="AD3" t="n">
-        <v>72215.50504805855</v>
+        <v>84092.82488420128</v>
       </c>
       <c r="AE3" t="n">
-        <v>98808.43992994691</v>
+        <v>115059.512920119</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.184290864522294e-06</v>
+        <v>9.802268814211986e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.006365740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>89378.30110157377</v>
+        <v>104078.3944940932</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.46287494309574</v>
+        <v>96.97680156667242</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.9881229179547</v>
+        <v>132.6879382180027</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.87276522195673</v>
+        <v>120.0243876232028</v>
       </c>
       <c r="AD2" t="n">
-        <v>77462.87494309574</v>
+        <v>96976.80156667242</v>
       </c>
       <c r="AE2" t="n">
-        <v>105988.1229179547</v>
+        <v>132687.9382180027</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.444995343687075e-06</v>
+        <v>1.019044852077115e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.195601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>95872.76522195672</v>
+        <v>120024.3876232028</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.85682696191839</v>
+        <v>80.25220713712626</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.21294839807268</v>
+        <v>109.8046102824768</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.22139683168729</v>
+        <v>99.32501238888374</v>
       </c>
       <c r="AD2" t="n">
-        <v>68856.82696191838</v>
+        <v>80252.20713712626</v>
       </c>
       <c r="AE2" t="n">
-        <v>94212.94839807268</v>
+        <v>109804.6102824768</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.299832793461225e-06</v>
+        <v>1.038759903184362e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.055555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>85221.39683168729</v>
+        <v>99325.01238888374</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.39749383443865</v>
+        <v>82.04346060899411</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.32095678247923</v>
+        <v>112.2554823072111</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.12821985449509</v>
+        <v>101.5419766273986</v>
       </c>
       <c r="AD2" t="n">
-        <v>70397.49383443865</v>
+        <v>82043.46060899411</v>
       </c>
       <c r="AE2" t="n">
-        <v>96320.95678247923</v>
+        <v>112255.4823072111</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.252013490593591e-06</v>
+        <v>1.009806252106707e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>87128.21985449508</v>
+        <v>101541.9766273986</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.51716720982895</v>
+        <v>82.16313398438442</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.48469917430486</v>
+        <v>112.4192246990367</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.27633490225885</v>
+        <v>101.6900916751624</v>
       </c>
       <c r="AD3" t="n">
-        <v>70517.16720982896</v>
+        <v>82163.13398438442</v>
       </c>
       <c r="AE3" t="n">
-        <v>96484.69917430487</v>
+        <v>112419.2246990367</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.254646078809427e-06</v>
+        <v>1.010312420654129e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>87276.33490225885</v>
+        <v>101690.0916751624</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.1880610215145</v>
+        <v>91.28100596943493</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.3485986202843</v>
+        <v>124.894699401099</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.00796043620518</v>
+        <v>112.9749245811025</v>
       </c>
       <c r="AD2" t="n">
-        <v>79188.0610215145</v>
+        <v>91281.00596943493</v>
       </c>
       <c r="AE2" t="n">
-        <v>108348.5986202843</v>
+        <v>124894.699401099</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.686303680128203e-06</v>
+        <v>8.730228316701821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.269675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>98007.96043620518</v>
+        <v>112974.9245811025</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.37829784783052</v>
+        <v>85.47866787199766</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.98049493476353</v>
+        <v>116.9556844350987</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.96551436557449</v>
+        <v>105.7935980609773</v>
       </c>
       <c r="AD3" t="n">
-        <v>61378.29784783052</v>
+        <v>85478.66787199766</v>
       </c>
       <c r="AE3" t="n">
-        <v>83980.49493476353</v>
+        <v>116955.6844350987</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.144219350828906e-06</v>
+        <v>9.583290479951005e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.977430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>75965.51436557449</v>
+        <v>105793.5980609773</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.83998298992964</v>
+        <v>78.96055598758956</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.82165761560839</v>
+        <v>108.0373161960546</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.96288888881207</v>
+        <v>97.72638636965625</v>
       </c>
       <c r="AD2" t="n">
-        <v>67839.98298992963</v>
+        <v>78960.55598758956</v>
       </c>
       <c r="AE2" t="n">
-        <v>92821.65761560839</v>
+        <v>108037.3161960546</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.269109765734999e-06</v>
+        <v>1.056191658843268e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.14525462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>83962.88888881207</v>
+        <v>97726.38636965625</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.31190598935717</v>
+        <v>87.43181180250878</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.73087524942677</v>
+        <v>119.6280621274516</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.07164785722667</v>
+        <v>108.2109277770785</v>
       </c>
       <c r="AD2" t="n">
-        <v>66311.90598935717</v>
+        <v>87431.81180250878</v>
       </c>
       <c r="AE2" t="n">
-        <v>90730.87524942677</v>
+        <v>119628.0621274516</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.157208858546147e-06</v>
+        <v>1.078920345317776e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.347800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>82071.64785722666</v>
+        <v>108210.9277770785</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.9648314974098</v>
+        <v>86.49560190319751</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.25599261769871</v>
+        <v>118.3470984405488</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.64208735736861</v>
+        <v>107.0522174666095</v>
       </c>
       <c r="AD2" t="n">
-        <v>65964.8314974098</v>
+        <v>86495.60190319752</v>
       </c>
       <c r="AE2" t="n">
-        <v>90255.99261769871</v>
+        <v>118347.0984405488</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.939747418667224e-06</v>
+        <v>1.07382984277051e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.61400462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>81642.08735736861</v>
+        <v>107052.2174666095</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.98061285659065</v>
+        <v>108.4324040251404</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.4330030059541</v>
+        <v>148.3619988871828</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.98887078927818</v>
+        <v>134.2025379408037</v>
       </c>
       <c r="AD2" t="n">
-        <v>79980.61285659065</v>
+        <v>108432.4040251404</v>
       </c>
       <c r="AE2" t="n">
-        <v>109433.0030059541</v>
+        <v>148361.9988871828</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.97990244264743e-06</v>
+        <v>9.466305272028227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.814814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>98988.87078927818</v>
+        <v>134202.5379408037</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.39859576417254</v>
+        <v>79.35976751190776</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.16704685495507</v>
+        <v>108.5835350155959</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.80233220776631</v>
+        <v>98.22047483168367</v>
       </c>
       <c r="AD2" t="n">
-        <v>56398.59576417254</v>
+        <v>79359.76751190776</v>
       </c>
       <c r="AE2" t="n">
-        <v>77167.04685495507</v>
+        <v>108583.5350155959</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.432346370789748e-06</v>
+        <v>1.054189291477879e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.951388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>69802.33220776632</v>
+        <v>98220.47483168368</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.41844770299288</v>
+        <v>89.40536791566824</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.9273356080545</v>
+        <v>122.3283686686258</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.81777936759785</v>
+        <v>110.6535208518679</v>
       </c>
       <c r="AD2" t="n">
-        <v>77418.44770299288</v>
+        <v>89405.36791566823</v>
       </c>
       <c r="AE2" t="n">
-        <v>105927.3356080545</v>
+        <v>122328.3686686258</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.788163432383842e-06</v>
+        <v>8.984472656876699e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.226273148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>95817.77936759785</v>
+        <v>110653.5208518679</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.82275626956564</v>
+        <v>84.71107682324264</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.22037843861722</v>
+        <v>115.9054324984655</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.27794232098994</v>
+        <v>104.8435806951382</v>
       </c>
       <c r="AD3" t="n">
-        <v>60822.75626956564</v>
+        <v>84711.07682324263</v>
       </c>
       <c r="AE3" t="n">
-        <v>83220.37843861722</v>
+        <v>115905.4324984655</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.168325524259583e-06</v>
+        <v>9.697805851925592e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.98900462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>75277.94232098994</v>
+        <v>104843.5806951382</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.1859010227294</v>
+        <v>132.5812285664086</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.9199902536822</v>
+        <v>181.4034859954781</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.1844683768847</v>
+        <v>164.0905918935122</v>
       </c>
       <c r="AD2" t="n">
-        <v>105185.9010227294</v>
+        <v>132581.2285664086</v>
       </c>
       <c r="AE2" t="n">
-        <v>143919.9902536822</v>
+        <v>181403.4859954781</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.208904567456577e-06</v>
+        <v>8.025226800944116e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.183449074074075</v>
       </c>
       <c r="AH2" t="n">
-        <v>130184.4683768847</v>
+        <v>164090.5918935122</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.62643081378287</v>
+        <v>77.4404672966767</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.16122199006176</v>
+        <v>105.9574637875686</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.46092290893104</v>
+        <v>95.84503215594428</v>
       </c>
       <c r="AD2" t="n">
-        <v>66626.43081378288</v>
+        <v>77440.4672966767</v>
       </c>
       <c r="AE2" t="n">
-        <v>91161.22199006176</v>
+        <v>105957.4637875686</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.223129268994629e-06</v>
+        <v>1.075590370325869e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.258101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>82460.92290893104</v>
+        <v>95845.03215594428</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.63470521014995</v>
+        <v>79.89610204747439</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.90903161798319</v>
+        <v>109.3173715885676</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.94648544253955</v>
+        <v>98.88427507207726</v>
       </c>
       <c r="AD2" t="n">
-        <v>68634.70521014994</v>
+        <v>79896.10204747439</v>
       </c>
       <c r="AE2" t="n">
-        <v>93909.03161798319</v>
+        <v>109317.3715885676</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.258324164816566e-06</v>
+        <v>1.041770828993829e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.113425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>84946.48544253956</v>
+        <v>98884.27507207726</v>
       </c>
     </row>
   </sheetData>
